--- a/biology/Botanique/Cornus_kousa/Cornus_kousa.xlsx
+++ b/biology/Botanique/Cornus_kousa/Cornus_kousa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornus kousa
 Le Cornouiller du Japon (Cornus kousa ou Benthamidia kousa ou Yamaboushi ヤマボウシ en japonais), est un petit arbre originaire d'Asie.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre au port érigé pouvant mesurer jusqu'à 12 m de haut.
 Ses feuilles simples opposées de 4 à 10 cm de long sont caduques.
@@ -546,7 +560,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe plusieurs variétés et cultivars :
 Cornus kousa 'China girl' : "Fleurs" (bractées) de 8 à 10cm ; fleurit abondamment et se colore de rouge en automne.
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est résistante à l'anthracnose des cornouillers, causé par le champignon  Discula destructiva. On l'utilise donc souvent comme arbre ornemental.
 			Cornouiller au Longwood Gardens
